--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,15 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Ephb6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -534,7 +531,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H2">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I2">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J2">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N2">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O2">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P2">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q2">
-        <v>0.01056304527666667</v>
+        <v>0.03190288179377777</v>
       </c>
       <c r="R2">
-        <v>0.09506740749000001</v>
+        <v>0.287125936144</v>
       </c>
       <c r="S2">
-        <v>0.009257807833980451</v>
+        <v>0.04274147036083347</v>
       </c>
       <c r="T2">
-        <v>0.009257807833980451</v>
+        <v>0.04274147036083347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H3">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I3">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J3">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>1.288128</v>
       </c>
       <c r="O3">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P3">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q3">
-        <v>0.02711738440533333</v>
+        <v>0.09291582139733333</v>
       </c>
       <c r="R3">
-        <v>0.244056459648</v>
+        <v>0.836242392576</v>
       </c>
       <c r="S3">
-        <v>0.02376658692728582</v>
+        <v>0.124482761525361</v>
       </c>
       <c r="T3">
-        <v>0.02376658692728582</v>
+        <v>0.124482761525361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H4">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I4">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J4">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N4">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O4">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P4">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q4">
-        <v>0.001768980886666666</v>
+        <v>0.003852449592888889</v>
       </c>
       <c r="R4">
-        <v>0.01592082798</v>
+        <v>0.034672046336</v>
       </c>
       <c r="S4">
-        <v>0.001550394292725433</v>
+        <v>0.005161269165445109</v>
       </c>
       <c r="T4">
-        <v>0.001550394292725434</v>
+        <v>0.00516126916544511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H5">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I5">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J5">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N5">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O5">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P5">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q5">
-        <v>0.05973618779377777</v>
+        <v>0.07215256939644445</v>
       </c>
       <c r="R5">
-        <v>0.537625690144</v>
+        <v>0.6493731245679999</v>
       </c>
       <c r="S5">
-        <v>0.05235480231737482</v>
+        <v>0.09666546509029113</v>
       </c>
       <c r="T5">
-        <v>0.05235480231737484</v>
+        <v>0.09666546509029113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +779,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H6">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I6">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J6">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N6">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O6">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P6">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q6">
-        <v>0.09397021469</v>
+        <v>0.00931082237911111</v>
       </c>
       <c r="R6">
-        <v>0.84573193221</v>
+        <v>0.083797401412</v>
       </c>
       <c r="S6">
-        <v>0.08235865386657092</v>
+        <v>0.01247405301264599</v>
       </c>
       <c r="T6">
-        <v>0.08235865386657092</v>
+        <v>0.01247405301264599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +841,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H7">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I7">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J7">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,22 +874,22 @@
         <v>1.288128</v>
       </c>
       <c r="O7">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P7">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q7">
-        <v>0.241239753088</v>
+        <v>0.02711738440533333</v>
       </c>
       <c r="R7">
-        <v>2.171157777792</v>
+        <v>0.244056459648</v>
       </c>
       <c r="S7">
-        <v>0.2114306260656647</v>
+        <v>0.03633016256387022</v>
       </c>
       <c r="T7">
-        <v>0.2114306260656647</v>
+        <v>0.03633016256387023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +903,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H8">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I8">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J8">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N8">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O8">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P8">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q8">
-        <v>0.01573708238</v>
+        <v>0.001124333347555555</v>
       </c>
       <c r="R8">
-        <v>0.14163374142</v>
+        <v>0.010119000128</v>
       </c>
       <c r="S8">
-        <v>0.01379250781622463</v>
+        <v>0.001506310958391697</v>
       </c>
       <c r="T8">
-        <v>0.01379250781622464</v>
+        <v>0.001506310958391698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +965,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H9">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I9">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J9">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N9">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O9">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P9">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q9">
-        <v>0.5314208397973332</v>
+        <v>0.02105765122377777</v>
       </c>
       <c r="R9">
-        <v>4.782787558176</v>
+        <v>0.189518861014</v>
       </c>
       <c r="S9">
-        <v>0.465755081508913</v>
+        <v>0.02821171395950211</v>
       </c>
       <c r="T9">
-        <v>0.4657550815089131</v>
+        <v>0.02821171395950212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1027,55 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H10">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I10">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J10">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N10">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O10">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P10">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q10">
-        <v>0.01227350641</v>
+        <v>0.06525910223955556</v>
       </c>
       <c r="R10">
-        <v>0.11046155769</v>
+        <v>0.587331920156</v>
       </c>
       <c r="S10">
-        <v>0.0107569134484259</v>
+        <v>0.08743003225152449</v>
       </c>
       <c r="T10">
-        <v>0.0107569134484259</v>
+        <v>0.0874300322515245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1089,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H11">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I11">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J11">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1122,22 @@
         <v>1.288128</v>
       </c>
       <c r="O11">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P11">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q11">
-        <v>0.031508469632</v>
+        <v>0.1900644314026667</v>
       </c>
       <c r="R11">
-        <v>0.283576226688</v>
+        <v>1.710579882624</v>
       </c>
       <c r="S11">
-        <v>0.02761508157502805</v>
+        <v>0.2546363464578973</v>
       </c>
       <c r="T11">
-        <v>0.02761508157502805</v>
+        <v>0.2546363464578973</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1151,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H12">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I12">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J12">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N12">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O12">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P12">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q12">
-        <v>0.00205542982</v>
+        <v>0.007880397873777777</v>
       </c>
       <c r="R12">
-        <v>0.01849886838</v>
+        <v>0.070923580864</v>
       </c>
       <c r="S12">
-        <v>0.001801447763537169</v>
+        <v>0.01055766041233742</v>
       </c>
       <c r="T12">
-        <v>0.00180144776353717</v>
+        <v>0.01055766041233742</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1213,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H13">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I13">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J13">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N13">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O13">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P13">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q13">
-        <v>0.06940919636266667</v>
+        <v>0.1475920555868889</v>
       </c>
       <c r="R13">
-        <v>0.6246827672640001</v>
+        <v>1.328328500282</v>
       </c>
       <c r="S13">
-        <v>0.06083255207246049</v>
+        <v>0.1977345341445563</v>
       </c>
       <c r="T13">
-        <v>0.0608325520724605</v>
+        <v>0.1977345341445564</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,46 +1284,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H14">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I14">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J14">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N14">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O14">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P14">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q14">
-        <v>0.004705886680000001</v>
+        <v>0.01210280121777778</v>
       </c>
       <c r="R14">
-        <v>0.04235298012000001</v>
+        <v>0.10892521096</v>
       </c>
       <c r="S14">
-        <v>0.004124397219821088</v>
+        <v>0.01621457029733279</v>
       </c>
       <c r="T14">
-        <v>0.004124397219821087</v>
+        <v>0.01621457029733279</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H15">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I15">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J15">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1370,22 @@
         <v>1.288128</v>
       </c>
       <c r="O15">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P15">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q15">
-        <v>0.012080923136</v>
+        <v>0.03524890709333333</v>
       </c>
       <c r="R15">
-        <v>0.108728308224</v>
+        <v>0.31724016384</v>
       </c>
       <c r="S15">
-        <v>0.01058812699565274</v>
+        <v>0.04722426417526078</v>
       </c>
       <c r="T15">
-        <v>0.01058812699565274</v>
+        <v>0.04722426417526078</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H16">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I16">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J16">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N16">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O16">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P16">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q16">
-        <v>0.00078808936</v>
+        <v>0.001461480248888889</v>
       </c>
       <c r="R16">
-        <v>0.00709280424</v>
+        <v>0.01315332224</v>
       </c>
       <c r="S16">
-        <v>0.0006907079975318444</v>
+        <v>0.001957999128248379</v>
       </c>
       <c r="T16">
-        <v>0.0006907079975318444</v>
+        <v>0.001957999128248379</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H17">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I17">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J17">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N17">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O17">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P17">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q17">
-        <v>0.02661275447466667</v>
+        <v>0.02737207912444444</v>
       </c>
       <c r="R17">
-        <v>0.239514790272</v>
+        <v>0.24634871212</v>
       </c>
       <c r="S17">
-        <v>0.02332431229880282</v>
+        <v>0.03667138649650165</v>
       </c>
       <c r="T17">
-        <v>0.02332431229880282</v>
+        <v>0.03667138649650165</v>
       </c>
     </row>
   </sheetData>
